--- a/biology/Zoologie/Erinaceota/Erinaceota.xlsx
+++ b/biology/Zoologie/Erinaceota/Erinaceota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erinaceota sont un sous-ordre de mammifères insectivores de l'ordre des Eulipotyphla. Ce sous-ordre regroupe les hérissons, les musaraignes et les taupes.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sous-ordre a été proposé en 1967 par le taxinomiste américain Leigh Van Valen, le décrivant alors comme équivalent aux Lipotyphla sans les Zalambdodonta. Il y inclut alors les familles des †Adapisoricidae, Erinaceidae, †Dimylidae, Talpidae, †Nesophontidae et Soricidae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sous-ordre a été proposé en 1967 par le taxinomiste américain Leigh Van Valen, le décrivant alors comme équivalent aux Lipotyphla sans les Zalambdodonta. Il y inclut alors les familles des †Adapisoricidae, Erinaceidae, †Dimylidae, Talpidae, †Nesophontidae et Soricidae.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Familles actuelles selon la Mammal Diversity Database  (13 janvier 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Familles actuelles selon la Mammal Diversity Database  (13 janvier 2024) :
 Erinaceidae
 Soricidae
 Talpidae
-Familles actuelles et fossiles, et genres non-classés selon The Hesperomys Project       (13 janvier 2024)[3] :
+Familles actuelles et fossiles, et genres non-classés selon The Hesperomys Project       (13 janvier 2024) :
 super-famille des Erinaceoidea Fischer, 1814
 † Adapisoricidae Schlosser, 1887
 † genre Adunator Russell, 1964
@@ -602,7 +618,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Leigh Van Valen, « New Paleocene insectivores and insectivore classification », Bulletin of the American Museum of Natural History, New York, vol. 135, article 5,‎ 1967, p. 272 (lire en ligne  [PDF])</t>
         </is>
